--- a/数据整理/stocks/A股/上证主板/601808-中海油服.xlsx
+++ b/数据整理/stocks/A股/上证主板/601808-中海油服.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007113</t>
+          <t>002910</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>永赢高端制造混合A</t>
+          <t>易方达供给改革灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.68</t>
+          <t>13.45</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6752</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007114</t>
+          <t>007113</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>永赢高端制造混合C</t>
+          <t>永赢高端制造混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>93.68</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.78</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2858</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>320018</t>
+          <t>519198</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>诺安新动力混合</t>
+          <t>万家颐和灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>79.31</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.17</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000433</t>
+          <t>320018</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>安信鑫发优选混合</t>
+          <t>诺安新动力混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>82.44</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>79.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>6</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002910</t>
+          <t>007114</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>易方达供给改革灵活配置混合</t>
+          <t>永赢高端制造混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.52</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>519198</t>
+          <t>000433</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>万家颐和灵活配置混合</t>
+          <t>安信鑫发优选混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>91.01</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.78</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -665,7 +735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,15 +756,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -706,26 +786,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003626</t>
+          <t>002910</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>平安鑫利灵活配置混合A</t>
+          <t>易方达供给改革灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>25.36</t>
+          <t>53.85</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6494</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -734,26 +824,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006433</t>
+          <t>320001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>平安鑫利灵活配置混合C</t>
+          <t>诺安平衡混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>25.36</t>
+          <t>12.02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>73.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8029</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -762,26 +862,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000433</t>
+          <t>007113</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>安信鑫发优选混合</t>
+          <t>永赢高端制造混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>78.93</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3169</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -790,26 +900,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>320001</t>
+          <t>004265</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>诺安平衡混合</t>
+          <t>金鹰民丰回报定期开放混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>73.61</t>
+          <t>6.61</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6.68</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
+          <t>28.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1038</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -818,26 +938,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>320018</t>
+          <t>000433</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>诺安新动力混合</t>
+          <t>安信鑫发优选混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>79.63</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6.56</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
+          <t>78.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0888</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -846,26 +976,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007113</t>
+          <t>320018</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>永赢高端制造混合A</t>
+          <t>诺安新动力混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.72</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6.80</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
+          <t>79.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007114</t>
+          <t>001707</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>永赢高端制造混合C</t>
+          <t>诺安高端制造股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>93.72</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>6.80</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001707</t>
+          <t>519198</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>诺安高端制造股票</t>
+          <t>万家颐和灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>93.21</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.49</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>4</v>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>519198</t>
+          <t>003626</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>万家颐和灵活配置混合</t>
+          <t>平安鑫利灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>93.95</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>8.45</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
+          <t>25.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>002910</t>
+          <t>006433</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>易方达供给改革灵活配置混合</t>
+          <t>平安鑫利灵活配置混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>93.03</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
+          <t>25.36</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>004265</t>
+          <t>007114</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>金鹰民丰回报定期开放混合</t>
+          <t>永赢高端制造混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>28.44</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>2</v>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601808-中海油服.xlsx
+++ b/数据整理/stocks/A股/上证主板/601808-中海油服.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1201,4 +1202,740 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9113</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>320001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安平衡混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>72.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8368</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519908</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏兴华混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3961</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007113</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>永赢高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2841</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>320018</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安新动力混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1033</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>400013</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方成长收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>51.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004166</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>23.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000433</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>77.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0715</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007687</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方成长收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>51.59</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0640</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001707</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001495</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方新价值混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519198</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002162</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方新价值混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007114</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>永赢高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007686</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>23.38</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000538</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>38.25</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002053</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>38.25</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>960004</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏兴华混合H</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601808-中海油服.xlsx
+++ b/数据整理/stocks/A股/上证主板/601808-中海油服.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1938,4 +1939,630 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0740</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>320001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安平衡混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>73.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7312</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005711</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>永赢惠添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6979</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007113</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>永赢高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2576</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000433</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>55.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1045</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>320018</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安新动力混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519198</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>75.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001707</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001907</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.91</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000410</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>益民服务领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005331</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>益民优势安享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.77</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001908</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>81.91</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007114</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>永赢高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006818</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>安信盈利驱动股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006819</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>安信盈利驱动股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601808-中海油服.xlsx
+++ b/数据整理/stocks/A股/上证主板/601808-中海油服.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2565,4 +2566,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601808-中海油服.xlsx
+++ b/数据整理/stocks/A股/上证主板/601808-中海油服.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2574,7 +2575,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2585,17 +2586,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2605,14 +2626,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.18</v>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0983</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2621,14 +2664,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>18</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.02</v>
+          <t>001907</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>40.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4160</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2637,14 +2702,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.23</v>
+          <t>320001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安平衡混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6804</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2653,13 +2740,227 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>320018</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安新动力混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0714</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519198</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001908</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.06</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601808-中海油服.xlsx
+++ b/数据整理/stocks/A股/上证主板/601808-中海油服.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2859,7 +2860,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2870,17 +2871,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2890,14 +2911,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.34</v>
+          <t>320001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安平衡混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>73.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5998</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -2906,14 +2949,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>320018</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安新动力混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1243</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>5.18</v>
+        <v>4.34</v>
       </c>
     </row>
     <row r="4">
@@ -2922,14 +3055,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>5.02</v>
+        <v>5.18</v>
       </c>
     </row>
     <row r="5">
@@ -2938,14 +3071,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D5" t="n">
-        <v>4.23</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="6">
@@ -2954,13 +3087,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.06</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601808-中海油服.xlsx
+++ b/数据整理/stocks/A股/上证主板/601808-中海油服.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2992,7 +2993,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3003,17 +3004,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3023,14 +3044,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>320001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安平衡混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>71.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3995</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.72</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="3">
@@ -3039,14 +3134,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>4.34</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="4">
@@ -3055,14 +3150,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>5.18</v>
+        <v>4.34</v>
       </c>
     </row>
     <row r="5">
@@ -3071,14 +3166,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>5.02</v>
+        <v>5.18</v>
       </c>
     </row>
     <row r="6">
@@ -3087,14 +3182,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D6" t="n">
-        <v>4.23</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="7">
@@ -3103,13 +3198,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.23</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.06</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601808-中海油服.xlsx
+++ b/数据整理/stocks/A股/上证主板/601808-中海油服.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.72</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>4.34</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>5.18</v>
+        <v>4.34</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>5.02</v>
+        <v>5.18</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D7" t="n">
-        <v>4.23</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>11</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.23</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>6</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.06</v>
       </c>
     </row>
@@ -600,6 +617,442 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华内需精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3777</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004475</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>37.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>67.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6222</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014597</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>67.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3595</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>180020</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.28</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1131</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011429</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源民裕进取混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>60.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008480</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>67.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003175</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>67.70</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011588</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源成份精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>60.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>015450</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>67.70</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008481</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>67.89</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -693,7 +1146,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -825,7 +1278,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1109,7 +1562,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1735,7 +2188,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2471,7 +2924,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2945,7 +3398,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601808-中海油服.xlsx
+++ b/数据整理/stocks/A股/上证主板/601808-中海油服.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>2.73</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.72</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>4.34</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>5.18</v>
+        <v>4.34</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>5.02</v>
+        <v>5.18</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D8" t="n">
-        <v>4.23</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,318 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>11</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4.23</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>6</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1.06</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6752</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007113</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>永赢高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2858</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519198</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>320018</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安新动力混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007114</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>永赢高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000433</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -683,26 +984,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>23.47</t>
+          <t>23.02</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.62</t>
+          <t>93.80</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.87</t>
+          <t>6.70</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.3777</t>
+          <t>1.5423</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -711,36 +1012,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004475</t>
+          <t>009394</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华泰柏瑞富利灵活配置混合A</t>
+          <t>银华同力精选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>37.71</t>
+          <t>18.05</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>67.54</t>
+          <t>94.33</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>5.51</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6222</t>
+          <t>0.9946</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -749,36 +1050,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>014597</t>
+          <t>004641</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华泰柏瑞富利灵活配置混合C</t>
+          <t>万家量化睿选灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>21.79</t>
+          <t>9.45</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>67.54</t>
+          <t>89.25</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3595</t>
+          <t>0.1285</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -787,36 +1088,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>180020</t>
+          <t>011429</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>银华成长先锋混合</t>
+          <t>前海开源民裕进取混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>79.28</t>
+          <t>62.27</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.26</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1131</t>
+          <t>0.1021</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -825,32 +1126,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011429</t>
+          <t>008480</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>前海开源民裕进取混合</t>
+          <t>永赢股息优选混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>60.79</t>
+          <t>83.68</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>4.67</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0784</t>
+          <t>0.0915</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -863,36 +1164,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>008480</t>
+          <t>016556</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>永赢股息优选混合A</t>
+          <t>万家量化睿选灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>67.89</t>
+          <t>89.25</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0627</t>
+          <t>0.0668</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -901,36 +1202,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>003175</t>
+          <t>080001</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华泰柏瑞多策略灵活配置混合A</t>
+          <t>长盛成长价值混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>67.70</t>
+          <t>63.89</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0584</t>
+          <t>0.0651</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -949,26 +1250,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>60.90</t>
+          <t>62.53</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0304</t>
+          <t>0.0352</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -977,36 +1278,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>015450</t>
+          <t>008481</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华泰柏瑞多策略灵活配置混合C</t>
+          <t>永赢股息优选混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>67.70</t>
+          <t>83.68</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>4.67</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0202</t>
+          <t>0.0112</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1015,36 +1316,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>008481</t>
+          <t>012715</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>永赢股息优选混合C</t>
+          <t>长盛成长价值混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>67.89</t>
+          <t>63.89</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0052</t>
+          <t>0.0027</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1053,6 +1354,442 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华内需精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3777</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004475</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>37.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>67.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6222</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014597</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>67.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3595</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>180020</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.28</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1131</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011429</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源民裕进取混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>60.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008480</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>67.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003175</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>67.70</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011588</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源成份精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>60.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>015450</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>67.70</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008481</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>67.89</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1146,7 +1883,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1278,7 +2015,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1562,7 +2299,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2188,7 +2925,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2924,7 +3661,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3396,288 +4133,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>002910</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达供给改革灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>13.45</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.52</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6752</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>007113</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>永赢高端制造混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.98</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.68</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2858</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>519198</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>万家颐和灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.01</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.78</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0410</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>320018</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>诺安新动力混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>79.31</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.17</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0327</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>007114</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>永赢高端制造混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.68</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0186</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>000433</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>安信鑫发优选混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>82.44</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0069</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>